--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -369,13 +369,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5" outlineLevelCol="0"/>
   <cols>
     <col width="20.125" customWidth="1" style="1" min="1" max="1"/>
   </cols>
@@ -397,9 +397,18 @@
       <c r="B2" s="0" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="n"/>
-      <c r="B3" s="0" t="n"/>
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>2020-12-23 00:00</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>수령님</t>
+        </is>
+      </c>
     </row>
+    <row r="4"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
